--- a/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
+++ b/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:55:09+00:00</t>
+    <t>2025-12-29T14:07:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
+++ b/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T14:07:05+00:00</t>
+    <t>2026-01-12T09:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
+++ b/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T09:11:14+00:00</t>
+    <t>2026-01-12T09:57:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
+++ b/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T09:57:25+00:00</t>
+    <t>2026-01-12T09:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
+++ b/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T09:59:06+00:00</t>
+    <t>2026-01-12T10:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
+++ b/nr-add-ins-invariant/ig/ValueSet-fr-core-vs-organization-identifier-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:00:46+00:00</t>
+    <t>2026-01-12T10:05:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
